--- a/biology/Zoologie/Geometroidea/Geometroidea.xlsx
+++ b/biology/Zoologie/Geometroidea/Geometroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Geometroidea sont une super-famille de l'ordre des lépidoptères (papillons), qui comprend près de 24 000 espèces[1]. 
-Elle regroupe les cinq familles suivantes[2] : 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Geometroidea sont une super-famille de l'ordre des lépidoptères (papillons), qui comprend près de 24 000 espèces. 
+Elle regroupe les cinq familles suivantes : 
 Sematuridae Guenée, 1858
 Pseudobistonidae Minet, Rajaei &amp; Stüning, 2015
 Epicopeiidae Swinhoe, 1892
 Uraniidae Leach, 1815
 Geometridae Leach, 1815
-Une analyse génétique fut réalisée par Heikkila et al. en 2015[3]. Les auteurs de l'étude n'incluaient pas la famille Pseudobistonidae dans leur échantillonnage de taxons, mais citent l'étude de Rajaei et al.[2] qui place Pseudobistonidae comme groupe frère des Epicopeiidae.
+Une analyse génétique fut réalisée par Heikkila et al. en 2015. Les auteurs de l'étude n'incluaient pas la famille Pseudobistonidae dans leur échantillonnage de taxons, mais citent l'étude de Rajaei et al. qui place Pseudobistonidae comme groupe frère des Epicopeiidae.
 Ces deux études aboutissent ainsi au cladogramme ci-dessous :
 			SematuridaeSematura diana
 			PseudobistonidaeHeracula discivitta
